--- a/Excels/FormationUnits.xlsx
+++ b/Excels/FormationUnits.xlsx
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>

--- a/Excels/FormationUnits.xlsx
+++ b/Excels/FormationUnits.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21240" windowHeight="10560"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>唯一标识</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>all</t>
-  </si>
-  <si>
-    <t>client</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1019,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1109,22 +1106,22 @@
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1157,20 +1154,20 @@
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="1">
-        <v>2</v>
+      <c r="C6" s="2">
+        <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E6" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="F6" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G6" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1181,19 +1178,19 @@
         <v>3</v>
       </c>
       <c r="C7" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E7" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F7" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G7" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/FormationUnits.xlsx
+++ b/Excels/FormationUnits.xlsx
@@ -1019,7 +1019,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1138,7 +1138,7 @@
         <v>100</v>
       </c>
       <c r="E5" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1">
         <v>100</v>
@@ -1161,7 +1161,7 @@
         <v>100</v>
       </c>
       <c r="E6" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1">
         <v>100</v>
@@ -1184,7 +1184,7 @@
         <v>100</v>
       </c>
       <c r="E7" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="F7" s="1">
         <v>100</v>

--- a/Excels/FormationUnits.xlsx
+++ b/Excels/FormationUnits.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>唯一标识</t>
   </si>
@@ -52,6 +52,9 @@
     <t>额外速度</t>
   </si>
   <si>
+    <t>等级</t>
+  </si>
+  <si>
     <t>Uid</t>
   </si>
   <si>
@@ -71,6 +74,9 @@
   </si>
   <si>
     <t>Speed</t>
+  </si>
+  <si>
+    <t>Level</t>
   </si>
   <si>
     <t>string</t>
@@ -1016,13 +1022,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="3" width="16.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.25" style="1" customWidth="1"/>
@@ -1032,7 +1038,7 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1054,77 +1060,89 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1135,10 +1153,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>100</v>
@@ -1146,8 +1164,11 @@
       <c r="G5" s="1">
         <v>100</v>
       </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1155,13 +1176,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>100</v>
@@ -1169,8 +1190,11 @@
       <c r="G6" s="1">
         <v>100</v>
       </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1181,16 +1205,19 @@
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>100</v>
       </c>
       <c r="G7" s="1">
         <v>100</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Excels/FormationUnits.xlsx
+++ b/Excels/FormationUnits.xlsx
@@ -1025,7 +1025,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D6" sqref="D6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>

--- a/Excels/FormationUnits.xlsx
+++ b/Excels/FormationUnits.xlsx
@@ -1025,7 +1025,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -1153,13 +1153,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>100</v>
+        <v>-700</v>
       </c>
       <c r="G5" s="1">
         <v>100</v>
@@ -1179,13 +1179,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>100</v>
+        <v>-700</v>
       </c>
       <c r="G6" s="1">
         <v>100</v>
@@ -1205,13 +1205,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>100</v>
+        <v>-700</v>
       </c>
       <c r="G7" s="1">
         <v>100</v>
